--- a/Data for tests/банки_для_импорта.xlsx
+++ b/Data for tests/банки_для_импорта.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizavetalukina/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\ShrekWebApp\Data for tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A725A48F-93C7-BB42-B83F-DE191D51F1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7117C755-6DFB-4668-9442-C5E9D7A7F5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15480" xr2:uid="{CECFA537-0F59-044D-B3FE-B82952F914E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CECFA537-0F59-044D-B3FE-B82952F914E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2253,12 +2253,12 @@
   <dimension ref="A1:F282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F282"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2344,7 +2344,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2356,7 +2356,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
@@ -2366,7 +2366,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
@@ -2376,7 +2376,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
@@ -2386,7 +2386,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
@@ -2436,7 +2436,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2450,7 +2450,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
@@ -2462,7 +2462,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="1" t="s">
@@ -2502,7 +2502,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
@@ -2512,7 +2512,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
@@ -2536,7 +2536,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="1" t="s">
@@ -2560,7 +2560,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="1" t="s">
@@ -2584,7 +2584,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="1" t="s">
@@ -2648,7 +2648,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1" t="s">
@@ -2670,7 +2670,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
@@ -2694,7 +2694,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="1" t="s">
@@ -2774,7 +2774,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="1" t="s">
@@ -2804,7 +2804,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
@@ -2816,7 +2816,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>103</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>109</v>
       </c>
@@ -2894,7 +2894,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>112</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>119</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>122</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="1" t="s">
@@ -2962,7 +2962,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="1" t="s">
@@ -2972,7 +2972,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>127</v>
       </c>
@@ -2986,7 +2986,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
@@ -3014,7 +3014,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="1" t="s">
@@ -3038,7 +3038,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>139</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>141</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>143</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
@@ -3090,7 +3090,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>148</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>151</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>154</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>156</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>158</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>163</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>165</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>168</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>171</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>173</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>175</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>177</v>
       </c>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="1" t="s">
@@ -3276,7 +3276,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>180</v>
       </c>
@@ -3288,7 +3288,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>182</v>
       </c>
@@ -3300,7 +3300,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>184</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="1" t="s">
@@ -3324,7 +3324,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="1" t="s">
@@ -3334,7 +3334,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>189</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>191</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>194</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>196</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="1" t="s">
@@ -3404,7 +3404,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>199</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>201</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>204</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>206</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>208</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="1" t="s">
@@ -3478,7 +3478,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="1" t="s">
@@ -3488,7 +3488,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>213</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="1" t="s">
@@ -3512,7 +3512,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>216</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>218</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="1" t="s">
@@ -3550,7 +3550,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>222</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>224</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>227</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>229</v>
       </c>
@@ -3602,7 +3602,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="1" t="s">
@@ -3612,7 +3612,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>233</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>235</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>237</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>239</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>241</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="1" t="s">
@@ -3690,7 +3690,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="1" t="s">
@@ -3700,7 +3700,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>245</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="1" t="s">
@@ -3724,7 +3724,7 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="1" t="s">
@@ -3736,7 +3736,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="1" t="s">
@@ -3748,7 +3748,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>252</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1" t="s">
@@ -3772,7 +3772,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="1" t="s">
@@ -3782,7 +3782,7 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="1" t="s">
@@ -3792,7 +3792,7 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>80</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1" t="s">
@@ -3814,7 +3814,7 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1" t="s">
@@ -3824,7 +3824,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="1" t="s">
@@ -3836,7 +3836,7 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>263</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>265</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>268</v>
       </c>
@@ -3880,7 +3880,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>272</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>276</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>280</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>283</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>286</v>
       </c>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>290</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>293</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>297</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>300</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>304</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>308</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>312</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>314</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="1" t="s">
@@ -4090,7 +4090,7 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1" t="s">
@@ -4102,7 +4102,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>319</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>322</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>325</v>
       </c>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="1" t="s">
@@ -4156,7 +4156,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>329</v>
       </c>
@@ -4170,7 +4170,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>332</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="1" t="s">
@@ -4194,7 +4194,7 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>335</v>
       </c>
@@ -4206,7 +4206,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="1" t="s">
@@ -4216,7 +4216,7 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>338</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>341</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="1" t="s">
@@ -4256,7 +4256,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>346</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="1" t="s">
@@ -4278,7 +4278,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>349</v>
       </c>
@@ -4292,7 +4292,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>352</v>
       </c>
@@ -4306,7 +4306,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>355</v>
       </c>
@@ -4320,7 +4320,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>358</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>361</v>
       </c>
@@ -4346,7 +4346,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="1" t="s">
@@ -4356,7 +4356,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="1" t="s">
@@ -4366,7 +4366,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="1" t="s">
@@ -4376,7 +4376,7 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>366</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>368</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="1" t="s">
@@ -4412,7 +4412,7 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="1" t="s">
@@ -4422,7 +4422,7 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>373</v>
       </c>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="1" t="s">
@@ -4448,7 +4448,7 @@
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="1" t="s">
@@ -4458,7 +4458,7 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="1" t="s">
@@ -4468,7 +4468,7 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>379</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>382</v>
       </c>
@@ -4496,7 +4496,7 @@
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>385</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="1" t="s">
@@ -4518,7 +4518,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>388</v>
       </c>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="1" t="s">
@@ -4542,7 +4542,7 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>391</v>
       </c>
@@ -4554,7 +4554,7 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>393</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="1" t="s">
@@ -4578,7 +4578,7 @@
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>397</v>
       </c>
@@ -4590,7 +4590,7 @@
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>399</v>
       </c>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="1" t="s">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>403</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>405</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>409</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>411</v>
       </c>
@@ -4674,7 +4674,7 @@
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="1" t="s">
@@ -4684,7 +4684,7 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>415</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>417</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>420</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>423</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>426</v>
       </c>
@@ -4754,7 +4754,7 @@
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>429</v>
       </c>
@@ -4766,7 +4766,7 @@
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>431</v>
       </c>
@@ -4782,7 +4782,7 @@
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>435</v>
       </c>
@@ -4796,7 +4796,7 @@
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="1" t="s">
@@ -4806,7 +4806,7 @@
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>439</v>
       </c>
@@ -4818,7 +4818,7 @@
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>441</v>
       </c>
@@ -4830,7 +4830,7 @@
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>443</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="4"/>
       <c r="C203" s="1" t="s">
@@ -4852,7 +4852,7 @@
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="4"/>
       <c r="C204" s="1" t="s">
@@ -4862,7 +4862,7 @@
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>447</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="4"/>
       <c r="C206" s="1" t="s">
@@ -4886,7 +4886,7 @@
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>451</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="4"/>
       <c r="C208" s="1" t="s">
@@ -4910,7 +4910,7 @@
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>454</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>457</v>
       </c>
@@ -4940,7 +4940,7 @@
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="4"/>
       <c r="C211" s="1" t="s">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="4"/>
       <c r="C212" s="1" t="s">
@@ -4962,7 +4962,7 @@
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="4"/>
       <c r="C213" s="1" t="s">
@@ -4972,7 +4972,7 @@
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>465</v>
       </c>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="5"/>
       <c r="C215" s="1" t="s">
@@ -4996,7 +4996,7 @@
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>469</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="4"/>
       <c r="C217" s="1" t="s">
@@ -5018,7 +5018,7 @@
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="4"/>
       <c r="C218" s="1" t="s">
@@ -5028,7 +5028,7 @@
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="4"/>
       <c r="C219" s="1" t="s">
@@ -5038,7 +5038,7 @@
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="4"/>
       <c r="C220" s="1" t="s">
@@ -5048,7 +5048,7 @@
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>474</v>
       </c>
@@ -5060,7 +5060,7 @@
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>476</v>
       </c>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="4"/>
       <c r="C223" s="1" t="s">
@@ -5086,7 +5086,7 @@
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>481</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>484</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>487</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>490</v>
       </c>
@@ -5140,7 +5140,7 @@
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>492</v>
       </c>
@@ -5152,7 +5152,7 @@
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>494</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>496</v>
       </c>
@@ -5178,7 +5178,7 @@
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
-    <row r="231" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>499</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>502</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="4"/>
       <c r="C233" s="1" t="s">
@@ -5214,7 +5214,7 @@
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>505</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>508</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>510</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>512</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>514</v>
       </c>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>517</v>
       </c>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>520</v>
       </c>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>523</v>
       </c>
@@ -5322,7 +5322,7 @@
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>525</v>
       </c>
@@ -5334,7 +5334,7 @@
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>527</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>529</v>
       </c>
@@ -5358,7 +5358,7 @@
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>531</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>533</v>
       </c>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="4"/>
       <c r="C247" s="1" t="s">
@@ -5394,7 +5394,7 @@
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="126" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>537</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>540</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="4"/>
       <c r="C250" s="1" t="s">
@@ -5432,7 +5432,7 @@
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>544</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>547</v>
       </c>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>550</v>
       </c>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>554</v>
       </c>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>557</v>
       </c>
@@ -5502,7 +5502,7 @@
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>559</v>
       </c>
@@ -5514,7 +5514,7 @@
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="4"/>
       <c r="C257" s="1" t="s">
@@ -5524,7 +5524,7 @@
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>562</v>
       </c>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>80</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="4"/>
       <c r="C260" s="1" t="s">
@@ -5560,7 +5560,7 @@
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>566</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>568</v>
       </c>
@@ -5584,7 +5584,7 @@
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="4"/>
       <c r="C263" s="1" t="s">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="4"/>
       <c r="C264" s="1" t="s">
@@ -5606,7 +5606,7 @@
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="4"/>
       <c r="C265" s="1" t="s">
@@ -5616,7 +5616,7 @@
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>574</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>577</v>
       </c>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>581</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="4"/>
       <c r="C269" s="1" t="s">
@@ -5674,7 +5674,7 @@
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>586</v>
       </c>
@@ -5686,7 +5686,7 @@
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>588</v>
       </c>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>591</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>594</v>
       </c>
@@ -5726,7 +5726,7 @@
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="4"/>
       <c r="C274" s="1" t="s">
@@ -5736,7 +5736,7 @@
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>597</v>
       </c>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>600</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>597</v>
       </c>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>603</v>
       </c>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="4"/>
       <c r="C279" s="1" t="s">
@@ -5800,7 +5800,7 @@
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>607</v>
       </c>
@@ -5812,7 +5812,7 @@
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>609</v>
       </c>
@@ -5826,7 +5826,7 @@
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="4"/>
       <c r="C282" s="1" t="s">
